--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,57 +40,57 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>false</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -115,9 +115,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -127,34 +124,31 @@
     <t>first</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -515,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +520,7 @@
         <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
@@ -634,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>28</v>
@@ -684,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
@@ -734,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,7 +778,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -802,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +828,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -902,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K9">
-        <v>0.631578947368421</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,37 +928,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>14</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +978,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1002,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K11">
-        <v>0.4444444444444444</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1028,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.65</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1052,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K12">
-        <v>0.3939393939393939</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1078,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6170212765957447</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1102,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K13">
-        <v>0.3611111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1126,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1134,13 +1128,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.572463768115942</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1152,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1184,13 +1178,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5428571428571428</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1202,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>0.2542372881355932</v>
+        <v>0.2304189435336976</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1226,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>44</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1234,13 +1228,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1252,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>0.2349726775956284</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="L16">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="M16">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1276,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>840</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1284,13 +1278,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1302,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>0.03812316715542522</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1326,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>328</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1334,13 +1328,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1352,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>0.02592592592592593</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1376,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>526</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1384,13 +1378,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1538461538461539</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1402,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>0.02409638554216868</v>
+        <v>0.01555299539170507</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1426,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>648</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1434,37 +1428,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.04040404040404041</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F20">
-        <v>0.86</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K20">
-        <v>0.02176696542893726</v>
+        <v>0.01536491677336748</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1476,59 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.0211038961038961</v>
-      </c>
-      <c r="L21">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <v>13</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.01324884792626728</v>
-      </c>
-      <c r="L22">
-        <v>23</v>
-      </c>
-      <c r="M22">
-        <v>23</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>1713</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
